--- a/Ігрова фізика/Лабораторна робота 5/Розрахунки.xlsx
+++ b/Ігрова фізика/Лабораторна робота 5/Розрахунки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\3-sem\Ігрова фізика\Лабораторна робота 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CDA3B0-0F31-4397-A0BC-FF0AA4877BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310CC92-FB2C-48A7-82EE-1A76FD039A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF4B022-06C7-4F29-B305-A0F0E3577C7B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Світлофільтр</t>
   </si>
@@ -51,12 +51,6 @@
     <t>d, мм</t>
   </si>
   <si>
-    <t>λ, мм</t>
-  </si>
-  <si>
-    <t>∆λ, мм</t>
-  </si>
-  <si>
     <t>xi, мм</t>
   </si>
   <si>
@@ -67,6 +61,36 @@
   </si>
   <si>
     <t>h'=&lt;hi'&gt;, мм</t>
+  </si>
+  <si>
+    <t>λ, нм</t>
+  </si>
+  <si>
+    <t>∆λ, нм</t>
+  </si>
+  <si>
+    <t>&lt;xi&gt;</t>
+  </si>
+  <si>
+    <t>Довірчий інтервал</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>S&lt;xi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;hi'&gt;</t>
+  </si>
+  <si>
+    <t>S&lt;hi'&gt;</t>
+  </si>
+  <si>
+    <t>S&lt;xi&gt;*2,92</t>
+  </si>
+  <si>
+    <t>S&lt;hi'&gt;*2,92</t>
   </si>
 </sst>
 </file>
@@ -125,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -134,7 +158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -449,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A92E919-0B56-48A5-BB1F-63D14854D762}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +483,12 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +501,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -489,8 +527,20 @@
       <c r="D2" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -503,48 +553,108 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <f>B7</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:I3" si="0">C7</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.52</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>2.13</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ROUND(SQRT((1/6)*SUM((B4-G3)^2,(B5-G3)^2,(B6-G3)^2)),4)</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4" si="1">ROUND(SQRT((1/6)*SUM((C4-H3)^2,(C5-H3)^2,(C6-H3)^2)),4)</f>
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>ROUND(SQRT((1/6)*SUM((D4-I3)^2,(D5-I3)^2,(D6-I3)^2)),4)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>2.11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ROUND(G4*2.92,5)</f>
+        <v>7.7380000000000004E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:I5" si="2">ROUND(H4*2.92,5)</f>
+        <v>0.14688000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.197E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>2.46</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>1.97</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B11</f>
+        <v>0.64</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:I6" si="3">C11</f>
+        <v>0.65</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <f>ROUND(AVERAGE(B4:B6),2)</f>
@@ -555,125 +665,155 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="C7:D7" si="0">ROUND(AVERAGE(D4:D6),2)</f>
+        <f t="shared" ref="D7" si="4">ROUND(AVERAGE(D4:D6),2)</f>
         <v>1.73</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ROUND(SQRT((1/6)*SUM((B8-G6)^2,(B9-G6)^2,(B10-G6)^2)),4)</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:I7" si="5">ROUND(SQRT((1/6)*SUM((C8-H6)^2,(C9-H6)^2,(C10-H6)^2)),4)</f>
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.62</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>0.68</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ROUND(G7*2.92,5)</f>
+        <v>4.292E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>ROUND(H7*2.92,5)</f>
+        <v>5.0520000000000002E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f>ROUND(I7*2.92,5)</f>
+        <v>3.5619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>0.67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>0.62</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>0.64</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>0.65</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <f>ROUND(AVERAGE(B8:B10),2)</f>
         <v>0.64</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:D11" si="1">ROUND(AVERAGE(C8:C10),2)</f>
+        <f t="shared" ref="C11:D11" si="6">ROUND(AVERAGE(C8:C10),2)</f>
         <v>0.65</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>145</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>145</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>642.96</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>642.96</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>642.96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <f>ROUND((B7*B11*POWER(B13-B12,2))/(B3*POWER(B13,2)*B12),6)</f>
-        <v>6.5399999999999996E-4</v>
+        <f>ROUND((B7*B11*POWER(B13-B12,2))/(B3*POWER(B13,2)*B12)*1000000,2)</f>
+        <v>653.92999999999995</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:D14" si="2">ROUND((C7*C11*POWER(C13-C12,2))/(C3*POWER(C13,2)*C12),6)</f>
-        <v>5.5699999999999999E-4</v>
+        <f t="shared" ref="C14:D14" si="7">ROUND((C7*C11*POWER(C13-C12,2))/(C3*POWER(C13,2)*C12)*1000000,2)</f>
+        <v>556.59</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6500000000000003E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>465.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <f>ROUND(2*B14/B2,6)</f>
-        <v>7.2999999999999999E-5</v>
+        <f>ROUND((2*B14/B2),2)</f>
+        <v>72.66</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:D15" si="3">ROUND(2*C14/C2,6)</f>
-        <v>9.2999999999999997E-5</v>
+        <f t="shared" ref="C15:D15" si="8">ROUND((2*C14/C2),2)</f>
+        <v>92.77</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>7.2000000000000002E-5</v>
+        <f t="shared" si="8"/>
+        <v>71.56</v>
       </c>
     </row>
   </sheetData>
